--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H200_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.552870090634441</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5448717948717948</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9289617486338798</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="E2" t="n">
-        <v>0.552870090634441</v>
+        <v>0.5317220543806647</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7120622568093384</v>
+        <v>0.6868686868686867</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4652567975830816</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1120598564698652</v>
+        <v>0.09685166444034451</v>
       </c>
       <c r="J2" t="n">
-        <v>1412.984053340587</v>
+        <v>1312.546778832548</v>
       </c>
       <c r="K2" t="n">
-        <v>2491423.857455333</v>
+        <v>2513745.403527653</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.424485826082</v>
+        <v>1585.479550018748</v>
       </c>
       <c r="M2" t="n">
-        <v>0.534244725464223</v>
+        <v>0.5300718594992984</v>
       </c>
     </row>
   </sheetData>
